--- a/动画对照表.xlsx
+++ b/动画对照表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Rhodes_Island\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43179\Desktop\ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AA55DA-7BBC-4361-8DAA-DC987B098BD7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ABCBA7-63B1-4F24-81B0-C97B8729C800}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5670" yWindow="2250" windowWidth="21600" windowHeight="11835" xr2:uid="{1A1EC258-FF87-4534-85FF-FBD1937AA4C3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>动画代号对照表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,125 @@
   </si>
   <si>
     <t>源石虫（黄）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合运动士兵（黄）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move_down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run_loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run_loop_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x_move_loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平循环前进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑动循环前进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑动循环前进2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能抬手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能收手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背面技能抬手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背面技能收手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背面技能循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back_skill_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back_skill_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back_skill_loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行帧数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰西卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jessica_normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白面鸮</t>
+  </si>
+  <si>
+    <t>plosis_normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,16 +646,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59426C5A-45FC-4518-A531-77CAFC38EAB6}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="3" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="15.375" customWidth="1"/>
@@ -637,6 +757,9 @@
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
@@ -645,6 +768,9 @@
       <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H8" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>22</v>
       </c>
@@ -655,6 +781,9 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="2">
+        <v>16</v>
+      </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
@@ -669,11 +798,17 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
+      <c r="B10" s="2">
+        <v>16</v>
+      </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>6</v>
+      </c>
+      <c r="H10" s="2">
+        <v>16</v>
       </c>
       <c r="I10" t="s">
         <v>3</v>
@@ -683,11 +818,17 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
+      <c r="B11" s="2">
+        <v>16</v>
+      </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>16</v>
       </c>
       <c r="I11" t="s">
         <v>4</v>
@@ -697,11 +838,17 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
+      <c r="B12" s="2">
+        <v>16</v>
+      </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
+      </c>
+      <c r="H12" s="2">
+        <v>16</v>
       </c>
       <c r="I12" t="s">
         <v>9</v>
@@ -711,6 +858,9 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
+      <c r="B13" s="2">
+        <v>16</v>
+      </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -725,6 +875,9 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14" s="2">
+        <v>16</v>
+      </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -739,6 +892,9 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15" s="2">
+        <v>16</v>
+      </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -758,6 +914,9 @@
       </c>
       <c r="G16" t="s">
         <v>16</v>
+      </c>
+      <c r="H16" s="2">
+        <v>8</v>
       </c>
       <c r="I16" t="s">
         <v>17</v>
@@ -773,6 +932,9 @@
       <c r="G17" t="s">
         <v>18</v>
       </c>
+      <c r="H17" s="2">
+        <v>16</v>
+      </c>
       <c r="I17" t="s">
         <v>19</v>
       </c>
@@ -787,39 +949,242 @@
       <c r="G18" t="s">
         <v>20</v>
       </c>
+      <c r="H18" s="2">
+        <v>8</v>
+      </c>
       <c r="I18" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="2">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="2">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="2">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="2">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="2">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="2">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2">
+        <v>11</v>
+      </c>
       <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>26</v>
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="2">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="2">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="I36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>27</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C38" t="s">
         <v>28</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G38" t="s">
         <v>30</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I38" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/动画对照表.xlsx
+++ b/动画对照表.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43179\Desktop\ani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ABCBA7-63B1-4F24-81B0-C97B8729C800}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981FFDFA-5379-4322-B907-F7080985EE13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="2250" windowWidth="21600" windowHeight="11835" xr2:uid="{1A1EC258-FF87-4534-85FF-FBD1937AA4C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1A1EC258-FF87-4534-85FF-FBD1937AA4C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="101">
   <si>
     <t>动画代号对照表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>idle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>move_down</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,6 +266,170 @@
   </si>
   <si>
     <t>plosis_normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正面攻击抬手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背面攻击抬手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back_attack_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正面攻击收手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背面攻击收手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back_attack_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正面攻击循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背面攻击循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back_attack_loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德克萨斯</t>
+  </si>
+  <si>
+    <t>德克萨斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>texas_normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干员——动作对照表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作——》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能天使</t>
+  </si>
+  <si>
+    <t>杰西卡</t>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫斯提马</t>
+  </si>
+  <si>
+    <t>mostima_normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干员——动作对照表见sheet2，不强调back动作即为正面动作，不强调2技能即为1技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正面二技能抬手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正面二技能收手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正面二技能循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正面二技能待命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_2_begin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_2_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_2_loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_2_idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背面二技能抬手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背面二技能收手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背面二技能循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背面二技能待命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back_skill_2_begin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back_skill_2_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back_skill_2_loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back_skill_2_idle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +437,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,13 +453,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -319,7 +502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -331,6 +514,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59426C5A-45FC-4518-A531-77CAFC38EAB6}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -662,124 +869,133 @@
     <col min="9" max="9" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
         <v>16</v>
@@ -788,24 +1004,34 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>16</v>
       </c>
       <c r="I9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H10" s="2">
         <v>16</v>
@@ -813,388 +1039,1087 @@
       <c r="I10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2">
         <v>16</v>
       </c>
       <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="2">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="2">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="2">
+        <v>8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="2">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="2">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="2">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="2">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="2">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="2">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="3">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="3">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="3">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="2">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="2">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="2">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="2">
         <v>4</v>
       </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>16</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="2">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="2">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="2">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="2">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="2">
-        <v>8</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="2">
-        <v>16</v>
-      </c>
-      <c r="I17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="2">
-        <v>8</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="3">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="3">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B37" s="3"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B38" s="3"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="2">
-        <v>16</v>
-      </c>
-      <c r="I19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="2">
-        <v>16</v>
-      </c>
-      <c r="I20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="2">
-        <v>16</v>
-      </c>
-      <c r="I21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="2">
-        <v>16</v>
-      </c>
-      <c r="I22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="2">
-        <v>16</v>
-      </c>
-      <c r="I23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="2">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="2">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="2">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="2">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="2">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="2">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="G39" s="1"/>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>55</v>
       </c>
-      <c r="G29" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="I36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" t="s">
         <v>30</v>
       </c>
-      <c r="I38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>57</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C43" t="s">
         <v>58</v>
       </c>
-      <c r="G39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" t="s">
-        <v>60</v>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:E7"/>
     <mergeCell ref="G2:K7"/>
+    <mergeCell ref="L8:R40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787BCFA0-B6B2-4949-A298-E0C847D50B65}">
+  <dimension ref="A1:AC13"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="29" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="N3" s="10"/>
+      <c r="O3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="N4" s="5"/>
+      <c r="O4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V7" t="s">
+        <v>85</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>